--- a/PCAcombined_predicted_variables_matrix_11.xlsx
+++ b/PCAcombined_predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,13 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.535850321527137</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5358338117186404</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.535828869223184</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5358312022883543</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5358330028110834</v>
+        <v>0.5358494710312314</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +454,7 @@
         <v>0.5361028817880246</v>
       </c>
       <c r="B3" t="n">
-        <v>0.536120805546373</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5361232911247614</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5361211869320729</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5361194061965402</v>
+        <v>0.5361231852646883</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +462,7 @@
         <v>0.5361051571937191</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5361371437075905</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5361300533884485</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5361255439773116</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.536122532861648</v>
+        <v>0.5361287640176584</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +470,7 @@
         <v>0.5358980454359253</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5359397113707131</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5359409779924922</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5359399793306501</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5359387990592062</v>
+        <v>0.5359411076943316</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +478,7 @@
         <v>0.5360671985659318</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5360675047673809</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.5360916275623286</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5360970174146795</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.536098142644488</v>
+        <v>0.536079817911656</v>
       </c>
     </row>
     <row r="7">
@@ -540,16 +486,7 @@
         <v>0.5357367884839583</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5357278033544002</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.535731804607087</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5357358902797569</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5357377775031591</v>
+        <v>0.5357768367283418</v>
       </c>
     </row>
     <row r="8">
@@ -557,16 +494,7 @@
         <v>0.5359608948601267</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5359396019118392</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5359196097598935</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.5359089793320624</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5359030826968405</v>
+        <v>0.5359318043793873</v>
       </c>
     </row>
     <row r="9">
@@ -574,16 +502,7 @@
         <v>0.5357824371709318</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5357847828628289</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5357783400324474</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.5357760509053234</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5357747172156182</v>
+        <v>0.5358205470234666</v>
       </c>
     </row>
     <row r="10">
@@ -591,16 +510,7 @@
         <v>0.5362221367742352</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5362193804053332</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5362114036062728</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5362073414351437</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5362050805194137</v>
+        <v>0.5362579361672086</v>
       </c>
     </row>
     <row r="11">
@@ -608,16 +518,7 @@
         <v>0.5358081001801897</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5358574401218447</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5358650031309072</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.5358667921877152</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.535866293450227</v>
+        <v>0.5358820480858831</v>
       </c>
     </row>
     <row r="12">
@@ -625,16 +526,7 @@
         <v>0.5358698428934031</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5359295824313072</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5359332181126528</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.535928165559043</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.5359240609550541</v>
+        <v>0.5359305939783359</v>
       </c>
     </row>
     <row r="13">
@@ -642,16 +534,7 @@
         <v>0.5359209870303315</v>
       </c>
       <c r="B13" t="n">
-        <v>0.535948055369067</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5359540784802077</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.5359512573757045</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5359481319922044</v>
+        <v>0.5359809203342306</v>
       </c>
     </row>
     <row r="14">
@@ -659,16 +542,7 @@
         <v>0.5358876490049392</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5359859823034939</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5360001942360747</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.5359982066762019</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5359950051499976</v>
+        <v>0.5360029992683509</v>
       </c>
     </row>
     <row r="15">
@@ -676,16 +550,7 @@
         <v>0.5358417478224978</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5359108184988814</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5359052208437841</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.5358977315580913</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.5358922486530125</v>
+        <v>0.5359455698119914</v>
       </c>
     </row>
     <row r="16">
@@ -693,16 +558,7 @@
         <v>0.5360778069941889</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5361557640099532</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5361480911393035</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.5361387678117814</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5361329238186436</v>
+        <v>0.5361803680242911</v>
       </c>
     </row>
     <row r="17">
@@ -710,16 +566,7 @@
         <v>0.536220218268243</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5362243976973762</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5362196311080047</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.5362133940433765</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.5362096427191501</v>
+        <v>0.5362390777737952</v>
       </c>
     </row>
     <row r="18">
@@ -727,16 +574,7 @@
         <v>0.5358572754884803</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5358847640341357</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5358800993318117</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.5358725733023169</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.535867409059345</v>
+        <v>0.5359147496490206</v>
       </c>
     </row>
     <row r="19">
@@ -744,16 +582,7 @@
         <v>0.5360206739225054</v>
       </c>
       <c r="B19" t="n">
-        <v>0.536108341487527</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5361384242371621</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.5361411790359542</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.5361396355024755</v>
+        <v>0.5361749153702817</v>
       </c>
     </row>
     <row r="20">
@@ -761,16 +590,7 @@
         <v>0.5360880927067609</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5361170147360105</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5360997674739155</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5360880358591756</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5360810223231854</v>
+        <v>0.5361163779900106</v>
       </c>
     </row>
     <row r="21">
@@ -778,16 +598,7 @@
         <v>0.5362057617053771</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5362725081796974</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5362690858118704</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.5362615158550985</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.5362567414937968</v>
+        <v>0.5362735066844116</v>
       </c>
     </row>
     <row r="22">
@@ -795,16 +606,7 @@
         <v>0.5360805104619055</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5361167647555921</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5361251983444684</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5361215481736644</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5361180014099336</v>
+        <v>0.5361273485649573</v>
       </c>
     </row>
     <row r="23">
@@ -812,16 +614,7 @@
         <v>0.5358053878623643</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5358734753853938</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5358809580169863</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.5358756838192702</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5358706978457231</v>
+        <v>0.5358698095497818</v>
       </c>
     </row>
     <row r="24">
@@ -829,16 +622,7 @@
         <v>0.5362801055534741</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5371246623012484</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.5369536697030278</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.5368745554941865</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.5368329678760254</v>
+        <v>0.5365933582632886</v>
       </c>
     </row>
     <row r="25">
@@ -846,16 +630,7 @@
         <v>0.5363429303309806</v>
       </c>
       <c r="B25" t="n">
-        <v>0.536230828890226</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5362076014129991</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.536197446210314</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.5361935297843273</v>
+        <v>0.5362237496781653</v>
       </c>
     </row>
     <row r="26">
@@ -863,16 +638,7 @@
         <v>0.5360108102261808</v>
       </c>
       <c r="B26" t="n">
-        <v>0.536116537001596</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5361206650474978</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5361072958603774</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5360977953473115</v>
+        <v>0.5360316514292347</v>
       </c>
     </row>
     <row r="27">
@@ -880,16 +646,7 @@
         <v>0.5360708161764149</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5359993909321707</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.536013839148936</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5360187395464029</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.5360213187707128</v>
+        <v>0.5360041699994067</v>
       </c>
     </row>
     <row r="28">
@@ -897,16 +654,7 @@
         <v>0.536448246777163</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5365115524091536</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.5364822509356993</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.5364816140348075</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.5364838651388377</v>
+        <v>0.5364486518944517</v>
       </c>
     </row>
     <row r="29">
@@ -914,16 +662,7 @@
         <v>0.536302548632739</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5368224153751827</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.5368754677630942</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5368978283103539</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.5369062142796446</v>
+        <v>0.5368760170371154</v>
       </c>
     </row>
     <row r="30">
@@ -931,16 +670,7 @@
         <v>0.5364247017820005</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5363739090545896</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.5363744786007171</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.5363755824812193</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.536377617395155</v>
+        <v>0.5363957831194057</v>
       </c>
     </row>
     <row r="31">
@@ -948,16 +678,7 @@
         <v>0.5358163294897778</v>
       </c>
       <c r="B31" t="n">
-        <v>0.535706919483753</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5357467374410967</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.5357546698977436</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.5357563672146231</v>
+        <v>0.5357599492892262</v>
       </c>
     </row>
     <row r="32">
@@ -965,16 +686,7 @@
         <v>0.5363709941879549</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5362962041405209</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.5363078281781838</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.536315554685093</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5363203382094966</v>
+        <v>0.536347998736197</v>
       </c>
     </row>
     <row r="33">
@@ -982,16 +694,7 @@
         <v>0.5364104520624544</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5364002567550512</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.5364211882403583</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.5364277565322513</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5364307069482829</v>
+        <v>0.5364700026910267</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +702,7 @@
         <v>0.5355959488190182</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5355384862060616</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.5355099896916614</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.5355044700890105</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5355026018113873</v>
+        <v>0.5355392273597369</v>
       </c>
     </row>
     <row r="35">
@@ -1016,16 +710,7 @@
         <v>0.5364560925297517</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5364666162135145</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5364650247129211</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.5364652424001309</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.5364656818121781</v>
+        <v>0.536471499596933</v>
       </c>
     </row>
     <row r="36">
@@ -1033,16 +718,7 @@
         <v>0.5364776849065923</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5364484963692115</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.5364450888469494</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.5364466018438369</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.5364481108949096</v>
+        <v>0.53646832331793</v>
       </c>
     </row>
     <row r="37">
@@ -1050,16 +726,7 @@
         <v>0.5364686552586585</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5364655152950653</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5364431406385088</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.5364350166440361</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.5364315407148114</v>
+        <v>0.5364571456021493</v>
       </c>
     </row>
     <row r="38">
@@ -1067,16 +734,7 @@
         <v>0.5363907194439866</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5363512889710337</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.536361817407453</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.5363669183256869</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.5363694923180499</v>
+        <v>0.53638545664985</v>
       </c>
     </row>
     <row r="39">
@@ -1084,16 +742,7 @@
         <v>0.536376125161558</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5363598758479459</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5363491986347364</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.5363459489896131</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.5363446161570727</v>
+        <v>0.5363758341862062</v>
       </c>
     </row>
     <row r="40">
@@ -1101,16 +750,7 @@
         <v>0.5364554185799397</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5364526139566784</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5364472276343564</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.5364445324189785</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.5364432269602285</v>
+        <v>0.5364598677455272</v>
       </c>
     </row>
     <row r="41">
@@ -1118,16 +758,7 @@
         <v>0.5363420985343692</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5363282698720467</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5363217610665546</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.5363199888448242</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5363195929667779</v>
+        <v>0.5363274072981322</v>
       </c>
     </row>
     <row r="42">
@@ -1135,16 +766,7 @@
         <v>0.5363816107891023</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5363688398904189</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.5363634063216506</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.536362462686555</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.5363622674070134</v>
+        <v>0.536394956623217</v>
       </c>
     </row>
     <row r="43">
@@ -1152,16 +774,7 @@
         <v>0.5364195437493354</v>
       </c>
       <c r="B43" t="n">
-        <v>0.536396452025069</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5363914643679144</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.5363896586969925</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.5363888667962708</v>
+        <v>0.5364112823769537</v>
       </c>
     </row>
     <row r="44">
@@ -1169,16 +782,7 @@
         <v>0.5363884759261593</v>
       </c>
       <c r="B44" t="n">
-        <v>0.53640148661273</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.5363944736519798</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.5363924447744106</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.5363917876340675</v>
+        <v>0.5364287157274915</v>
       </c>
     </row>
     <row r="45">
@@ -1186,16 +790,7 @@
         <v>0.536479365614681</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5364393104794816</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5364170266694498</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.5364118289259318</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.5364104238142592</v>
+        <v>0.5364632156091285</v>
       </c>
     </row>
     <row r="46">
@@ -1203,16 +798,7 @@
         <v>0.5352356024007081</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5352378382957986</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.5352205113475975</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.535210671269621</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.5352032654362872</v>
+        <v>0.5352911283640058</v>
       </c>
     </row>
     <row r="47">
@@ -1220,16 +806,7 @@
         <v>0.5354054343141594</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5353951507282845</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.5353843013219416</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.5353782061381657</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.5353731635017062</v>
+        <v>0.5354554463776766</v>
       </c>
     </row>
     <row r="48">
@@ -1237,16 +814,7 @@
         <v>0.5354903252361948</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5354753320840262</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.5354678429312486</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.5354633165668573</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.5354590295111518</v>
+        <v>0.5355389218026704</v>
       </c>
     </row>
     <row r="49">
@@ -1254,16 +822,7 @@
         <v>0.5356146671069453</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5356147676444155</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.5356063923753518</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.5356014216403563</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.5355972480481148</v>
+        <v>0.5356632487052888</v>
       </c>
     </row>
     <row r="50">
@@ -1271,16 +830,7 @@
         <v>0.5359125875090491</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5359360377609308</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.5359344677904596</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5359324483949225</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.5359302081456063</v>
+        <v>0.5359819289378482</v>
       </c>
     </row>
     <row r="51">
@@ -1288,16 +838,7 @@
         <v>0.5355185945434178</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5355056629001201</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.5354884153649757</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5354812171336527</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.535476270503034</v>
+        <v>0.5355402265093532</v>
       </c>
     </row>
     <row r="52">
@@ -1305,16 +846,7 @@
         <v>0.5355185945434178</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5355056629001201</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.5354884153649757</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5354812171336527</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.535476270503034</v>
+        <v>0.5355402265093532</v>
       </c>
     </row>
     <row r="53">
@@ -1322,16 +854,7 @@
         <v>0.5353561102815139</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5353217973781395</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.5353116174690898</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.5353070853981924</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.5353025983943794</v>
+        <v>0.5354015308265886</v>
       </c>
     </row>
     <row r="54">
@@ -1339,16 +862,7 @@
         <v>0.5358847487671585</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5358881210125275</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.5358803071005891</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.5358762576051237</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.5358731308773679</v>
+        <v>0.5359287102089112</v>
       </c>
     </row>
     <row r="55">
@@ -1356,16 +870,7 @@
         <v>0.5353909742968243</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5353700865520064</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.5353703616007413</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.5353670329459126</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.5353627327828788</v>
+        <v>0.535440136450969</v>
       </c>
     </row>
     <row r="56">
@@ -1373,16 +878,7 @@
         <v>0.5354292941073772</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5354589412288191</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.5354457256089473</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.5354365615382504</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.535429825218862</v>
+        <v>0.5354965009304762</v>
       </c>
     </row>
     <row r="57">
@@ -1390,16 +886,7 @@
         <v>0.5354042034689954</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5354071791272613</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.535397166336788</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.5353889005850688</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.5353826621825131</v>
+        <v>0.5354785636851034</v>
       </c>
     </row>
     <row r="58">
@@ -1407,16 +894,7 @@
         <v>0.5352907507010893</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5353231009953274</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.5353119357784276</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.5353048971283653</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.5352996716887446</v>
+        <v>0.5353675342238029</v>
       </c>
     </row>
     <row r="59">
@@ -1424,16 +902,7 @@
         <v>0.5355063057597282</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5355209612529804</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.5355069301915208</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.5354998713885341</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.5354949451304521</v>
+        <v>0.5355576862521547</v>
       </c>
     </row>
     <row r="60">
@@ -1441,16 +910,7 @@
         <v>0.5357289907724888</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5357255548934556</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.535715915275227</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.5357110458586236</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.5357078826775858</v>
+        <v>0.5357470671769241</v>
       </c>
     </row>
     <row r="61">
@@ -1458,16 +918,7 @@
         <v>0.5362081921571696</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5362064359929707</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.5362027981147954</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.5362010179949571</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.536199806136157</v>
+        <v>0.5362396081343385</v>
       </c>
     </row>
     <row r="62">
@@ -1475,16 +926,7 @@
         <v>0.5352606150465524</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5351948011627297</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.5352237616648415</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.5352276232473789</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.5352259703688428</v>
+        <v>0.5353289988339948</v>
       </c>
     </row>
     <row r="63">
@@ -1492,16 +934,7 @@
         <v>0.5357349354779262</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5357089835522788</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.5356725702774665</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.5356584558438922</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.5356514978236613</v>
+        <v>0.5356772458176551</v>
       </c>
     </row>
     <row r="64">
@@ -1509,16 +942,7 @@
         <v>0.5355150149914941</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5354516220892858</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.5354575134676645</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.5354599441620533</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.5354597719154481</v>
+        <v>0.5355293688678766</v>
       </c>
     </row>
     <row r="65">
@@ -1526,16 +950,7 @@
         <v>0.5359450089713627</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5359730961989129</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.5359562258053799</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.5359480191264543</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.5359434697677561</v>
+        <v>0.535980063599431</v>
       </c>
     </row>
     <row r="66">
@@ -1543,16 +958,7 @@
         <v>0.5354932296139497</v>
       </c>
       <c r="B66" t="n">
-        <v>0.535476973753908</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.5354906390690168</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.53548943617634</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.5354862120116766</v>
+        <v>0.5355520965736162</v>
       </c>
     </row>
     <row r="67">
@@ -1560,16 +966,7 @@
         <v>0.535409099229765</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5355005016951657</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.5354965065954115</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.535488076652028</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.5354813159590309</v>
+        <v>0.5355588699256013</v>
       </c>
     </row>
     <row r="68">
@@ -1577,16 +974,7 @@
         <v>-0.9219828159794183</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.9370291609433421</v>
-      </c>
-      <c r="C68" t="n">
-        <v>-0.9440555716637826</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.9502787892132613</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-0.9558748425428417</v>
+        <v>-0.924385015536198</v>
       </c>
     </row>
     <row r="69">
@@ -1594,16 +982,7 @@
         <v>-0.938859090261413</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.9564946072972118</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-0.9621237402172601</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.9678683226812825</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-0.9732727980556861</v>
+        <v>-0.9394043098499908</v>
       </c>
     </row>
     <row r="70">
@@ -1611,16 +990,7 @@
         <v>-0.9285838011722358</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.9386983966297352</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-0.9464210667964822</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.9530304931439414</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-0.9587877927007781</v>
+        <v>-0.9280909231119342</v>
       </c>
     </row>
     <row r="71">
@@ -1628,16 +998,7 @@
         <v>-0.9414459099299836</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.951089771225333</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-0.9570449340877832</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-0.9631539438264807</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-0.9687713840796184</v>
+        <v>-0.9343752087565018</v>
       </c>
     </row>
     <row r="72">
@@ -1645,16 +1006,7 @@
         <v>-0.9505944050837579</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.9662149950999299</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-0.9720792701453593</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-0.977704446139855</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-0.9830242252473532</v>
+        <v>-0.9519792126675795</v>
       </c>
     </row>
     <row r="73">
@@ -1662,16 +1014,7 @@
         <v>-0.9069100072905675</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.9187442208295872</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-0.9273720163732329</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-0.9341916190776671</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-0.9400314875177666</v>
+        <v>-0.9109377051891895</v>
       </c>
     </row>
     <row r="74">
@@ -1679,16 +1022,7 @@
         <v>-0.9009241553217507</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.909106192258902</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-0.9174339383861801</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-0.9243240145358832</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-0.9302201378804256</v>
+        <v>-0.9025707589989871</v>
       </c>
     </row>
     <row r="75">
@@ -1696,16 +1030,7 @@
         <v>-0.9069120769912939</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.9264857214724143</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-0.933788295628834</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-0.9403157490549822</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-0.9460523028584094</v>
+        <v>-0.9151559460419141</v>
       </c>
     </row>
     <row r="76">
@@ -1713,16 +1038,7 @@
         <v>-0.9256345344033592</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.9423192994817123</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-0.9472248508793676</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-0.9529955361173283</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-0.9584435559867919</v>
+        <v>-0.9241917620214148</v>
       </c>
     </row>
     <row r="77">
@@ -1730,16 +1046,7 @@
         <v>-0.9357279951850258</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.9489905539285002</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-0.9574268825121005</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-0.9644497606033104</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-0.9704492323269063</v>
+        <v>-0.9398739434972758</v>
       </c>
     </row>
     <row r="78">
@@ -1747,16 +1054,7 @@
         <v>-0.9492923483628695</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.9515954827241281</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-0.9587065290388297</v>
-      </c>
-      <c r="D78" t="n">
-        <v>-0.9656409549236731</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-0.9716939678021372</v>
+        <v>-0.9461101773499295</v>
       </c>
     </row>
     <row r="79">
@@ -1764,16 +1062,7 @@
         <v>-0.9555135862672069</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.9647075729442461</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-0.9714370691779418</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-0.9779153067844732</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-0.9837169807973773</v>
+        <v>-0.9527369565849488</v>
       </c>
     </row>
     <row r="80">
@@ -1781,16 +1070,7 @@
         <v>-0.941629282641976</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.9520720249546987</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-0.9587209640546263</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-0.9652650220364567</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-0.9710934003281965</v>
+        <v>-0.9414048747776534</v>
       </c>
     </row>
     <row r="81">
@@ -1798,16 +1078,7 @@
         <v>-0.9407551894829664</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.9534116524905557</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-0.9573154319188102</v>
-      </c>
-      <c r="D81" t="n">
-        <v>-0.9628219263936885</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-0.9681662790673022</v>
+        <v>-0.9358938732797376</v>
       </c>
     </row>
     <row r="82">
@@ -1815,16 +1086,7 @@
         <v>-0.9497393434209579</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.9542173729456466</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-0.9630041087625159</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-0.9697536657935163</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-0.9756172822560465</v>
+        <v>-0.9535167330916402</v>
       </c>
     </row>
     <row r="83">
@@ -1832,16 +1094,7 @@
         <v>-0.9527539752736268</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.9574830840893871</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-0.9631481538363481</v>
-      </c>
-      <c r="D83" t="n">
-        <v>-0.9692770220780516</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-0.9749581161248202</v>
+        <v>-0.9460111301514783</v>
       </c>
     </row>
     <row r="84">
@@ -1849,16 +1102,7 @@
         <v>-0.9401250866505769</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.9534892382268652</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-0.9610786930168402</v>
-      </c>
-      <c r="D84" t="n">
-        <v>-0.9680435506234858</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-0.9740598657187288</v>
+        <v>-0.9427144352175156</v>
       </c>
     </row>
     <row r="85">
@@ -1866,16 +1110,7 @@
         <v>-0.9465230747110455</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.9534413397033791</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-0.9611652201324363</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-0.9679928926039263</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-0.9739056404616591</v>
+        <v>-0.9446278891304766</v>
       </c>
     </row>
     <row r="86">
@@ -1883,16 +1118,7 @@
         <v>-0.9644365434053138</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.9732287086694409</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-0.978649536129798</v>
-      </c>
-      <c r="D86" t="n">
-        <v>-0.9847400528283135</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-0.9904433434383303</v>
+        <v>-0.960660945829121</v>
       </c>
     </row>
     <row r="87">
@@ -1900,16 +1126,7 @@
         <v>-0.938453106790587</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.9469270855047366</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-0.9538032811063688</v>
-      </c>
-      <c r="D87" t="n">
-        <v>-0.9604692722201397</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-0.9664021279273961</v>
+        <v>-0.939236982386195</v>
       </c>
     </row>
     <row r="88">
@@ -1917,16 +1134,7 @@
         <v>-1.068175317991303</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.060798387297007</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-1.021860345086046</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-1.046631959460465</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-1.068370202819288</v>
+        <v>-1.055522250514561</v>
       </c>
     </row>
     <row r="89">
@@ -1934,16 +1142,7 @@
         <v>-3.129713890989636</v>
       </c>
       <c r="B89" t="n">
-        <v>-3.69100350738136</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-3.566762197689441</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-3.503409113193277</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-3.470254092694295</v>
+        <v>-3.188783215757086</v>
       </c>
     </row>
     <row r="90">
@@ -1951,16 +1150,7 @@
         <v>-1.151554839132499</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.078423702405582</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-1.077006725911373</v>
-      </c>
-      <c r="D90" t="n">
-        <v>-1.078056577209402</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-1.079037961935544</v>
+        <v>-1.101762968614988</v>
       </c>
     </row>
     <row r="91">
@@ -1968,16 +1158,7 @@
         <v>-5.898048725790548</v>
       </c>
       <c r="B91" t="n">
-        <v>-4.628356546517698</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-4.877956869664136</v>
-      </c>
-      <c r="D91" t="n">
-        <v>-5.00130607924419</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-5.068847937131916</v>
+        <v>-5.623561137736834</v>
       </c>
     </row>
     <row r="92">
@@ -1985,16 +1166,7 @@
         <v>-0.7107458467563502</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.810865543440298</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-0.7658528438654129</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-0.7492489432528532</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-0.7441747665747602</v>
+        <v>-0.7025490811571582</v>
       </c>
     </row>
     <row r="93">
@@ -2002,16 +1174,7 @@
         <v>-1.023993938878713</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.300991391758292</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-1.064382652069454</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-1.028489074324984</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-1.02383089302804</v>
+        <v>-0.8809078652334181</v>
       </c>
     </row>
     <row r="94">
@@ -2019,16 +1182,7 @@
         <v>-1.234114325505086</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.217347278103379</v>
-      </c>
-      <c r="C94" t="n">
-        <v>-1.216883133604949</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-1.215444946665421</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-1.218691856674206</v>
+        <v>-1.195106626153884</v>
       </c>
     </row>
     <row r="95">
@@ -2036,16 +1190,7 @@
         <v>-0.06669000763144883</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.6260723995350441</v>
-      </c>
-      <c r="C95" t="n">
-        <v>-0.8361702284215263</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-0.9239274414687276</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-0.9640364370832286</v>
+        <v>-0.3767562104037714</v>
       </c>
     </row>
     <row r="96">
@@ -2053,16 +1198,7 @@
         <v>-1.366317692195886</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.427384146244851</v>
-      </c>
-      <c r="C96" t="n">
-        <v>-1.52668736792569</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-1.534053758002869</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-1.532894761899523</v>
+        <v>-1.450464890939849</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_variables_matrix_11.xlsx
+++ b/PCAcombined_predicted_variables_matrix_11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,12 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +454,12 @@
       <c r="B2" t="n">
         <v>0.5358494710312314</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.5359046365656187</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5359744149978427</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +468,12 @@
       <c r="B3" t="n">
         <v>0.5361231852646883</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.5361807100680809</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5362501675523637</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +482,12 @@
       <c r="B4" t="n">
         <v>0.5361287640176584</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.5361862797160992</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5362557322586663</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +496,12 @@
       <c r="B5" t="n">
         <v>0.5359411076943316</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.5360013540875327</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5360726018853651</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +510,12 @@
       <c r="B6" t="n">
         <v>0.536079817911656</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.5361429548709736</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5362141452837936</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +524,12 @@
       <c r="B7" t="n">
         <v>0.5357768367283418</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.5358301240619222</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5358968911594275</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +538,12 @@
       <c r="B8" t="n">
         <v>0.5359318043793873</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.5359803801626792</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5360439539268702</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +552,12 @@
       <c r="B9" t="n">
         <v>0.5358205470234666</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.5358707116315397</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5359352318725892</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +566,12 @@
       <c r="B10" t="n">
         <v>0.5362579361672086</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.5363030306301012</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5363642347022872</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +580,12 @@
       <c r="B11" t="n">
         <v>0.5358820480858831</v>
       </c>
+      <c r="C11" t="n">
+        <v>0.5359397191598312</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5360087054380722</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +594,12 @@
       <c r="B12" t="n">
         <v>0.5359305939783359</v>
       </c>
+      <c r="C12" t="n">
+        <v>0.5359903039016976</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5360603775205615</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +608,12 @@
       <c r="B13" t="n">
         <v>0.5359809203342306</v>
       </c>
+      <c r="C13" t="n">
+        <v>0.5360346130508287</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5360999856637164</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -544,6 +622,12 @@
       <c r="B14" t="n">
         <v>0.5360029992683509</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.5360632445237411</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5361325288332793</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -552,6 +636,12 @@
       <c r="B15" t="n">
         <v>0.5359455698119914</v>
       </c>
+      <c r="C15" t="n">
+        <v>0.5359957588517975</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.53606010777531</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -560,6 +650,12 @@
       <c r="B16" t="n">
         <v>0.5361803680242911</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.5362319045389642</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5362962976981205</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -568,6 +664,12 @@
       <c r="B17" t="n">
         <v>0.5362390777737952</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.536287388412991</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5363539991273087</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -576,6 +678,12 @@
       <c r="B18" t="n">
         <v>0.5359147496490206</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.5359626580252732</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5360265826950468</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -584,6 +692,12 @@
       <c r="B19" t="n">
         <v>0.5361749153702817</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.5362350914606544</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5363044976576595</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -592,6 +706,12 @@
       <c r="B20" t="n">
         <v>0.5361163779900106</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.5361698269687215</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5362357618179067</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -600,6 +720,12 @@
       <c r="B21" t="n">
         <v>0.5362735066844116</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.5363311241833187</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5363990569049564</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -608,6 +734,12 @@
       <c r="B22" t="n">
         <v>0.5361273485649573</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.5361835572905415</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5362516538772359</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -616,6 +748,12 @@
       <c r="B23" t="n">
         <v>0.5358698095497818</v>
       </c>
+      <c r="C23" t="n">
+        <v>0.53593141805084</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5360018387270316</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -624,6 +762,12 @@
       <c r="B24" t="n">
         <v>0.5365933582632886</v>
       </c>
+      <c r="C24" t="n">
+        <v>0.5366734001466217</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5367729061783511</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -632,6 +776,12 @@
       <c r="B25" t="n">
         <v>0.5362237496781653</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.5362533033587599</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5363080573104123</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -640,6 +790,12 @@
       <c r="B26" t="n">
         <v>0.5360316514292347</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.536099674371679</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5361753839190719</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -648,6 +804,12 @@
       <c r="B27" t="n">
         <v>0.5360041699994067</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.5360526079050592</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5361184780542468</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -656,6 +818,12 @@
       <c r="B28" t="n">
         <v>0.5364486518944517</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.5364966370692765</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5365647449241409</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -664,6 +832,12 @@
       <c r="B29" t="n">
         <v>0.5368760170371154</v>
       </c>
+      <c r="C29" t="n">
+        <v>0.5369140959110694</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5369905931986272</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -672,6 +846,12 @@
       <c r="B30" t="n">
         <v>0.5363957831194057</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.5364365200110184</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5365005820052098</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -680,6 +860,12 @@
       <c r="B31" t="n">
         <v>0.5357599492892262</v>
       </c>
+      <c r="C31" t="n">
+        <v>0.535806349446291</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5358678470653311</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -688,6 +874,12 @@
       <c r="B32" t="n">
         <v>0.536347998736197</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.5363911373443856</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5364526293781975</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -696,6 +888,12 @@
       <c r="B33" t="n">
         <v>0.5364700026910267</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.536513381506594</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.536575673936884</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -704,6 +902,12 @@
       <c r="B34" t="n">
         <v>0.5355392273597369</v>
       </c>
+      <c r="C34" t="n">
+        <v>0.5355733062181607</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5356315626577437</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -712,6 +916,12 @@
       <c r="B35" t="n">
         <v>0.536471499596933</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.5365254874439608</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5365938109071098</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -720,6 +930,12 @@
       <c r="B36" t="n">
         <v>0.53646832331793</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.5365177253441313</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5365833751791008</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -728,6 +944,12 @@
       <c r="B37" t="n">
         <v>0.5364571456021493</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.5365035221756906</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5365670446139091</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -736,6 +958,12 @@
       <c r="B38" t="n">
         <v>0.53638545664985</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.5364360986935505</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5365023901147501</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -744,6 +972,12 @@
       <c r="B39" t="n">
         <v>0.5363758341862062</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.5364240751388424</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5364880640586849</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -752,6 +986,12 @@
       <c r="B40" t="n">
         <v>0.5364598677455272</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.5365119155016509</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5365779561861562</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -760,6 +1000,12 @@
       <c r="B41" t="n">
         <v>0.5363274072981322</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.5363811659742771</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5364493119302002</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -768,6 +1014,12 @@
       <c r="B42" t="n">
         <v>0.536394956623217</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.5364411219161417</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5365051459018498</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -776,6 +1028,12 @@
       <c r="B43" t="n">
         <v>0.5364112823769537</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.5364593432947059</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5365241633707333</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -784,6 +1042,12 @@
       <c r="B44" t="n">
         <v>0.5364287157274915</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.5364775509199129</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5365420680360364</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -792,6 +1056,12 @@
       <c r="B45" t="n">
         <v>0.5364632156091285</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.5365046730369725</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5365649687696195</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -800,6 +1070,12 @@
       <c r="B46" t="n">
         <v>0.5352911283640058</v>
       </c>
+      <c r="C46" t="n">
+        <v>0.5353346750293391</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5353946447615938</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -808,6 +1084,12 @@
       <c r="B47" t="n">
         <v>0.5354554463776766</v>
       </c>
+      <c r="C47" t="n">
+        <v>0.5354987240538674</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5355587410856997</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -816,6 +1098,12 @@
       <c r="B48" t="n">
         <v>0.5355389218026704</v>
       </c>
+      <c r="C48" t="n">
+        <v>0.5355839747196581</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5356451892113758</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -824,6 +1112,12 @@
       <c r="B49" t="n">
         <v>0.5356632487052888</v>
       </c>
+      <c r="C49" t="n">
+        <v>0.5357103863031178</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5357731094810803</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -832,6 +1126,12 @@
       <c r="B50" t="n">
         <v>0.5359819289378482</v>
       </c>
+      <c r="C50" t="n">
+        <v>0.5360322256715001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5360968648606905</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -840,6 +1140,12 @@
       <c r="B51" t="n">
         <v>0.5355402265093532</v>
       </c>
+      <c r="C51" t="n">
+        <v>0.5355857970574767</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5356477844839765</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -848,6 +1154,12 @@
       <c r="B52" t="n">
         <v>0.5355402265093532</v>
       </c>
+      <c r="C52" t="n">
+        <v>0.5355857970574767</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5356477844839765</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -856,6 +1168,12 @@
       <c r="B53" t="n">
         <v>0.5354015308265886</v>
       </c>
+      <c r="C53" t="n">
+        <v>0.5354420516723445</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.535500728215741</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -864,6 +1182,12 @@
       <c r="B54" t="n">
         <v>0.5359287102089112</v>
       </c>
+      <c r="C54" t="n">
+        <v>0.5359767868072127</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5360401562652762</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -872,6 +1196,12 @@
       <c r="B55" t="n">
         <v>0.535440136450969</v>
       </c>
+      <c r="C55" t="n">
+        <v>0.5354864732774314</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5355477300342949</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -880,6 +1210,12 @@
       <c r="B56" t="n">
         <v>0.5354965009304762</v>
       </c>
+      <c r="C56" t="n">
+        <v>0.5355440949449797</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5356062004208808</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -888,6 +1224,12 @@
       <c r="B57" t="n">
         <v>0.5354785636851034</v>
       </c>
+      <c r="C57" t="n">
+        <v>0.5355208658909195</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5355797067632994</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -896,6 +1238,12 @@
       <c r="B58" t="n">
         <v>0.5353675342238029</v>
       </c>
+      <c r="C58" t="n">
+        <v>0.5354166554085943</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5354791923160731</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -904,6 +1252,12 @@
       <c r="B59" t="n">
         <v>0.5355576862521547</v>
       </c>
+      <c r="C59" t="n">
+        <v>0.535606613411885</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.535670034784005</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -912,6 +1266,12 @@
       <c r="B60" t="n">
         <v>0.5357470671769241</v>
       </c>
+      <c r="C60" t="n">
+        <v>0.5357991061789623</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5358644764203828</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -920,6 +1280,12 @@
       <c r="B61" t="n">
         <v>0.5362396081343385</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.536289009415837</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5363533153575721</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -928,6 +1294,12 @@
       <c r="B62" t="n">
         <v>0.5353289988339948</v>
       </c>
+      <c r="C62" t="n">
+        <v>0.5353737705580983</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5354319643604374</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -936,6 +1308,12 @@
       <c r="B63" t="n">
         <v>0.5356772458176551</v>
       </c>
+      <c r="C63" t="n">
+        <v>0.5357279718405635</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.5357926769265517</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -944,6 +1322,12 @@
       <c r="B64" t="n">
         <v>0.5355293688678766</v>
       </c>
+      <c r="C64" t="n">
+        <v>0.5355770512059442</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.5356393717103863</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -952,6 +1336,12 @@
       <c r="B65" t="n">
         <v>0.535980063599431</v>
       </c>
+      <c r="C65" t="n">
+        <v>0.5360314331293641</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.5360970280619415</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -960,6 +1350,12 @@
       <c r="B66" t="n">
         <v>0.5355520965736162</v>
       </c>
+      <c r="C66" t="n">
+        <v>0.535602222617465</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5356640439704402</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -968,6 +1364,12 @@
       <c r="B67" t="n">
         <v>0.5355588699256013</v>
       </c>
+      <c r="C67" t="n">
+        <v>0.5356081519632236</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.5356702497872265</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -976,6 +1378,12 @@
       <c r="B68" t="n">
         <v>-0.924385015536198</v>
       </c>
+      <c r="C68" t="n">
+        <v>-0.9263019266940962</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.9291918645664061</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -984,6 +1392,12 @@
       <c r="B69" t="n">
         <v>-0.9394043098499908</v>
       </c>
+      <c r="C69" t="n">
+        <v>-0.9414766852683761</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.9446014470955822</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -992,6 +1406,12 @@
       <c r="B70" t="n">
         <v>-0.9280909231119342</v>
       </c>
+      <c r="C70" t="n">
+        <v>-0.9295047794217192</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.9321945068509401</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1000,6 +1420,12 @@
       <c r="B71" t="n">
         <v>-0.9343752087565018</v>
       </c>
+      <c r="C71" t="n">
+        <v>-0.9364370434820358</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.9394279231576858</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1008,6 +1434,12 @@
       <c r="B72" t="n">
         <v>-0.9519792126675795</v>
       </c>
+      <c r="C72" t="n">
+        <v>-0.9536699034195461</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.9563565518638431</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1016,6 +1448,12 @@
       <c r="B73" t="n">
         <v>-0.9109377051891895</v>
       </c>
+      <c r="C73" t="n">
+        <v>-0.9125310939001022</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.9152236965884092</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1024,6 +1462,12 @@
       <c r="B74" t="n">
         <v>-0.9025707589989871</v>
       </c>
+      <c r="C74" t="n">
+        <v>-0.9036093939906642</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.9059912293101703</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1032,6 +1476,12 @@
       <c r="B75" t="n">
         <v>-0.9151559460419141</v>
       </c>
+      <c r="C75" t="n">
+        <v>-0.9171294668769635</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.920083440029104</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1040,6 +1490,12 @@
       <c r="B76" t="n">
         <v>-0.9241917620214148</v>
       </c>
+      <c r="C76" t="n">
+        <v>-0.9263507423344435</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.9296020978769363</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1048,6 +1504,12 @@
       <c r="B77" t="n">
         <v>-0.9398739434972758</v>
       </c>
+      <c r="C77" t="n">
+        <v>-0.9416259311489952</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.9444947931612377</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1056,6 +1518,12 @@
       <c r="B78" t="n">
         <v>-0.9461101773499295</v>
       </c>
+      <c r="C78" t="n">
+        <v>-0.9463846337276892</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.9483191742462855</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1064,6 +1532,12 @@
       <c r="B79" t="n">
         <v>-0.9527369565849488</v>
       </c>
+      <c r="C79" t="n">
+        <v>-0.9541105304458318</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.9566685068679526</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1072,6 +1546,12 @@
       <c r="B80" t="n">
         <v>-0.9414048747776534</v>
       </c>
+      <c r="C80" t="n">
+        <v>-0.942386576467661</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.9448791729613517</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1080,6 +1560,12 @@
       <c r="B81" t="n">
         <v>-0.9358938732797376</v>
       </c>
+      <c r="C81" t="n">
+        <v>-0.9372836568493521</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.9400051211249538</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1088,6 +1574,12 @@
       <c r="B82" t="n">
         <v>-0.9535167330916402</v>
       </c>
+      <c r="C82" t="n">
+        <v>-0.9536123469392961</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.9551475705089245</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1096,6 +1588,12 @@
       <c r="B83" t="n">
         <v>-0.9460111301514783</v>
       </c>
+      <c r="C83" t="n">
+        <v>-0.9468817332060065</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.9491724140107776</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1104,6 +1602,12 @@
       <c r="B84" t="n">
         <v>-0.9427144352175156</v>
       </c>
+      <c r="C84" t="n">
+        <v>-0.9442407519409118</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.9470843003176599</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1112,6 +1616,12 @@
       <c r="B85" t="n">
         <v>-0.9446278891304766</v>
       </c>
+      <c r="C85" t="n">
+        <v>-0.9456278922624496</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.9480902661868119</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1120,6 +1630,12 @@
       <c r="B86" t="n">
         <v>-0.960660945829121</v>
       </c>
+      <c r="C86" t="n">
+        <v>-0.9616803965854235</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.9640816481486332</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1128,6 +1644,12 @@
       <c r="B87" t="n">
         <v>-0.939236982386195</v>
       </c>
+      <c r="C87" t="n">
+        <v>-0.9400997194382199</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.9424402245482698</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1136,6 +1658,12 @@
       <c r="B88" t="n">
         <v>-1.055522250514561</v>
       </c>
+      <c r="C88" t="n">
+        <v>-1.048989095723329</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-1.051786846477305</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1144,6 +1672,12 @@
       <c r="B89" t="n">
         <v>-3.188783215757086</v>
       </c>
+      <c r="C89" t="n">
+        <v>-3.230578943812733</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3.265350123975021</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1152,6 +1686,12 @@
       <c r="B90" t="n">
         <v>-1.101762968614988</v>
       </c>
+      <c r="C90" t="n">
+        <v>-1.070451691771709</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-1.058744667546974</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1160,6 +1700,12 @@
       <c r="B91" t="n">
         <v>-5.623561137736834</v>
       </c>
+      <c r="C91" t="n">
+        <v>-5.457429956211476</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-5.351594868563745</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1168,6 +1714,12 @@
       <c r="B92" t="n">
         <v>-0.7025490811571582</v>
       </c>
+      <c r="C92" t="n">
+        <v>-0.7016404639970732</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.7060922586381827</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1176,6 +1728,12 @@
       <c r="B93" t="n">
         <v>-0.8809078652334181</v>
       </c>
+      <c r="C93" t="n">
+        <v>-0.8628712819287507</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.8872937835386736</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1184,6 +1742,12 @@
       <c r="B94" t="n">
         <v>-1.195106626153884</v>
       </c>
+      <c r="C94" t="n">
+        <v>-1.186484572623729</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-1.186577039846472</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1192,6 +1756,12 @@
       <c r="B95" t="n">
         <v>-0.3767562104037714</v>
       </c>
+      <c r="C95" t="n">
+        <v>-0.5670190291904802</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.6886363599127945</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1199,6 +1769,12 @@
       </c>
       <c r="B96" t="n">
         <v>-1.450464890939849</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.475595565772304</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-1.4842818541201</v>
       </c>
     </row>
   </sheetData>
